--- a/Calculo_Notas_Portafolio.xlsx
+++ b/Calculo_Notas_Portafolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBAEBC-7A07-4BCA-8AA1-019EEB6F85BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7DBE0-415F-40F0-BB00-772DE263F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6EF4BC16-9D08-4B7A-BD4C-24F9E129846C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6EF4BC16-9D08-4B7A-BD4C-24F9E129846C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/Calculo_Notas_Portafolio.xlsx
+++ b/Calculo_Notas_Portafolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7DBE0-415F-40F0-BB00-772DE263F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2A7A9D-CB5D-4975-BB02-9B03C694F009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6EF4BC16-9D08-4B7A-BD4C-24F9E129846C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6EF4BC16-9D08-4B7A-BD4C-24F9E129846C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15995</xdr:colOff>
+      <xdr:colOff>19805</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>91695</xdr:rowOff>
+      <xdr:rowOff>95505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -536,7 +536,7 @@
   <dimension ref="D3:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,11 +563,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="F5" s="1">
         <f>E5*0.2</f>
-        <v>1.4000000000000001</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.3">
@@ -575,11 +575,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="F6" s="1">
         <f>E6*0.3</f>
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.3">
@@ -587,11 +587,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="F7" s="1">
         <f>E7*0.3</f>
-        <v>0.3</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.3">
@@ -600,7 +600,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(F4:F7)</f>
-        <v>5.2</v>
+        <v>6.4399999999999995</v>
       </c>
       <c r="G8" s="4">
         <v>3.9</v>
